--- a/backend/common/primary_data/九龙城区升学数据.xlsx
+++ b/backend/common/primary_data/九龙城区升学数据.xlsx
@@ -6144,7 +6144,7 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>

--- a/backend/common/primary_data/九龙城区升学数据.xlsx
+++ b/backend/common/primary_data/九龙城区升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15880" firstSheet="1" activeTab="1"/>
+    <workbookView windowHeight="15840" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="拔萃男書院附屬小學" sheetId="1" r:id="rId1"/>
@@ -6144,7 +6144,7 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>

--- a/backend/common/primary_data/九龙城区升学数据.xlsx
+++ b/backend/common/primary_data/九龙城区升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15840" firstSheet="1" activeTab="1"/>
+    <workbookView windowHeight="16080" firstSheet="15" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="拔萃男書院附屬小學" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="321">
   <si>
     <t>是否可统计升中数据</t>
   </si>
@@ -117,6 +117,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>鄧鏡</t>
     </r>
     <r>
@@ -146,6 +151,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>順</t>
     </r>
     <r>
@@ -199,6 +209,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>九</t>
     </r>
     <r>
@@ -252,6 +267,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>基督教香港信</t>
     </r>
     <r>
@@ -297,6 +317,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>德</t>
     </r>
     <r>
@@ -326,6 +351,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>五旬</t>
     </r>
     <r>
@@ -355,6 +385,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>保良局唐乃勤初中</t>
     </r>
     <r>
@@ -376,6 +411,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>聖貞</t>
     </r>
     <r>
@@ -397,6 +437,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>其他及海外升</t>
     </r>
     <r>
@@ -410,6 +455,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>沙田崇真中</t>
     </r>
     <r>
@@ -423,6 +473,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>何明</t>
     </r>
     <r>
@@ -468,6 +523,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>東華</t>
     </r>
     <r>
@@ -505,6 +565,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>聖羅</t>
     </r>
     <r>
@@ -534,6 +599,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>香港真光中</t>
     </r>
     <r>
@@ -547,6 +617,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>香港培道中</t>
     </r>
     <r>
@@ -560,6 +635,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>九</t>
     </r>
     <r>
@@ -589,6 +669,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>嘉</t>
     </r>
     <r>
@@ -642,6 +727,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>聖</t>
     </r>
     <r>
@@ -671,6 +761,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>陳</t>
     </r>
     <r>
@@ -700,6 +795,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>聖</t>
     </r>
     <r>
@@ -721,6 +821,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>東華</t>
     </r>
     <r>
@@ -758,6 +863,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>喇沙</t>
     </r>
     <r>
@@ -779,6 +889,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>香港</t>
     </r>
     <r>
@@ -816,6 +931,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>聖</t>
     </r>
     <r>
@@ -845,6 +965,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>瑪</t>
     </r>
     <r>
@@ -866,6 +991,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>聖</t>
     </r>
     <r>
@@ -903,6 +1033,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>瑪</t>
     </r>
     <r>
@@ -964,6 +1099,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>華</t>
     </r>
     <r>
@@ -1009,6 +1149,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>寶</t>
     </r>
     <r>
@@ -1054,6 +1199,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>華</t>
     </r>
     <r>
@@ -1075,6 +1225,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>保良局百周年李兆忠</t>
     </r>
     <r>
@@ -1104,6 +1259,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>保良局何</t>
     </r>
     <r>
@@ -1133,6 +1293,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>港青基信</t>
     </r>
     <r>
@@ -1154,6 +1319,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>啟</t>
     </r>
     <r>
@@ -1175,6 +1345,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>將軍</t>
     </r>
     <r>
@@ -1215,6 +1390,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>香港管理</t>
     </r>
     <r>
@@ -1260,6 +1440,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>優</t>
     </r>
     <r>
@@ -1305,6 +1490,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>聖瑪</t>
     </r>
     <r>
@@ -1326,6 +1516,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>福建中</t>
     </r>
     <r>
@@ -1339,6 +1534,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>香</t>
     </r>
     <r>
@@ -1368,6 +1568,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>香港浸</t>
     </r>
     <r>
@@ -1445,6 +1650,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>香港</t>
     </r>
     <r>
@@ -1498,6 +1708,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>羅</t>
     </r>
     <r>
@@ -1519,6 +1734,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>基督教中</t>
     </r>
     <r>
@@ -1572,6 +1792,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>香港神</t>
     </r>
     <r>
@@ -1609,6 +1834,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>拔萃女</t>
     </r>
     <r>
@@ -1630,6 +1860,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>聖</t>
     </r>
     <r>
@@ -1659,6 +1894,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>聖</t>
     </r>
     <r>
@@ -1688,6 +1928,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>協</t>
     </r>
     <r>
@@ -1709,6 +1954,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>英</t>
     </r>
     <r>
@@ -1730,6 +1980,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>聖</t>
     </r>
     <r>
@@ -1759,6 +2014,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>德望</t>
     </r>
     <r>
@@ -1780,6 +2040,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>港大同</t>
     </r>
     <r>
@@ -1801,6 +2066,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>保良局</t>
     </r>
     <r>
@@ -1822,6 +2092,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>滙</t>
     </r>
     <r>
@@ -2097,72 +2372,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>瑪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>利</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>諾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>修院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>學</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>校(中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>學</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>部)</t>
-    </r>
-  </si>
-  <si>
     <t>聖保祿中學</t>
   </si>
   <si>
@@ -2182,6 +2391,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>九</t>
     </r>
     <r>
@@ -2355,6 +2569,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>鄧顯紀</t>
     </r>
     <r>
@@ -2432,6 +2651,85 @@
     </r>
   </si>
   <si>
+    <t>天主教郭得勝中學</t>
+  </si>
+  <si>
+    <t>鳳溪第一中學</t>
+  </si>
+  <si>
+    <t>余振強紀念中學</t>
+  </si>
+  <si>
+    <r>
+      <t>創</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>知中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <t>彩虹邨天主教英文中學</t>
+  </si>
+  <si>
+    <t>獻主會聖母院書院</t>
+  </si>
+  <si>
+    <r>
+      <t>官立嘉道理爵士中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(西九</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>龍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -2462,9 +2760,6 @@
     <t>聖安當女書院</t>
   </si>
   <si>
-    <t>余振強紀念中學</t>
-  </si>
-  <si>
     <t>樂善堂王仲銘中學</t>
   </si>
   <si>
@@ -2590,6 +2885,33 @@
     <t>基督書院</t>
   </si>
   <si>
+    <t>華仁書院 (九龍)</t>
+  </si>
+  <si>
+    <t>中華基督教會協和中學</t>
+  </si>
+  <si>
+    <t>沙田崇真中學</t>
+  </si>
+  <si>
+    <t>荃灣官立中學</t>
+  </si>
+  <si>
+    <t>陳瑞祺 (喇沙) 書院</t>
+  </si>
+  <si>
+    <t>文理書院 (九龍)</t>
+  </si>
+  <si>
+    <t>優才 (楊殷有娣) 書院</t>
+  </si>
+  <si>
+    <t>羅氏基金中學</t>
+  </si>
+  <si>
+    <t>培僑書院</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -2662,9 +2984,6 @@
     <t>聖類斯中學</t>
   </si>
   <si>
-    <t>天主教郭得勝中學</t>
-  </si>
-  <si>
     <t>聖公會林裘謀中學</t>
   </si>
   <si>
@@ -2687,6 +3006,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>文理</t>
     </r>
     <r>
@@ -2724,6 +3048,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>陳</t>
     </r>
     <r>
@@ -2768,6 +3097,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>寶</t>
     </r>
     <r>
@@ -2853,6 +3187,189 @@
     <t>潔心林炳炎中學</t>
   </si>
   <si>
+    <r>
+      <t>瑪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>諾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校(中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>陳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>瑞祺(喇沙)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <t>聖公會鄧肇堅中學</t>
+  </si>
+  <si>
+    <t>香港耀中國際學校</t>
+  </si>
+  <si>
+    <t>德信中學</t>
+  </si>
+  <si>
+    <t>保良局胡忠中學</t>
+  </si>
+  <si>
+    <t>東華三院張明添中學</t>
+  </si>
+  <si>
+    <t>聖伯多祿中學</t>
+  </si>
+  <si>
+    <r>
+      <t>九</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>龍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>塘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校(中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部)</t>
+    </r>
+  </si>
+  <si>
+    <t>中華基督教會燕京書院</t>
+  </si>
+  <si>
+    <t>聖公會聖馬利亞堂莫慶堯中學</t>
+  </si>
+  <si>
     <t>shi</t>
   </si>
   <si>
@@ -2860,6 +3377,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>九</t>
     </r>
     <r>
@@ -2892,6 +3415,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>香</t>
     </r>
     <r>
@@ -2924,6 +3453,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>基督教女青年</t>
     </r>
     <r>
@@ -2977,6 +3512,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>林大</t>
     </r>
     <r>
@@ -3009,6 +3550,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>香港培道中</t>
     </r>
     <r>
@@ -3023,6 +3570,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>文理</t>
     </r>
     <r>
@@ -3064,6 +3617,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>何文田官立中</t>
     </r>
     <r>
@@ -3081,6 +3640,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>禮賢會</t>
     </r>
     <r>
@@ -3187,6 +3752,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>九</t>
     </r>
     <r>
@@ -3245,13 +3816,15 @@
     </r>
   </si>
   <si>
-    <t>獻主會聖母院書院</t>
-  </si>
-  <si>
     <t>地利亞修女紀念學校(吉利徑)</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>基督教女青年</t>
     </r>
     <r>
@@ -3296,21 +3869,74 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>陳</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>瑞祺(喇沙)</t>
+    <t>長沙灣天主教英文中學</t>
+  </si>
+  <si>
+    <t>⾹港管理專業協會李國寶中學</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>林大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>輝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>何文田官立中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <t>香港兆基創意書院</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>慕光英文</t>
     </r>
     <r>
       <rPr>
@@ -3330,128 +3956,13 @@
     </r>
   </si>
   <si>
-    <t>長沙灣天主教英文中學</t>
-  </si>
-  <si>
-    <t>培僑書院</t>
-  </si>
-  <si>
-    <t>⾹港管理專業協會李國寶中學</t>
-  </si>
-  <si>
-    <r>
-      <t>林大</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>輝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>學</t>
-    </r>
-  </si>
-  <si>
-    <t>德信中學</t>
-  </si>
-  <si>
-    <r>
-      <t>何文田官立中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>學</t>
-    </r>
-  </si>
-  <si>
-    <t>香港兆基創意書院</t>
-  </si>
-  <si>
-    <r>
-      <t>慕光英文</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>書</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>院</t>
-    </r>
-  </si>
-  <si>
     <t>香港仔工業學校</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>聖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>若瑟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>書</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>院</t>
-    </r>
-  </si>
-  <si>
     <t>可立中學</t>
   </si>
   <si>
     <t>五旬節林漢光中學</t>
-  </si>
-  <si>
-    <t>羅氏基金中學</t>
   </si>
   <si>
     <r>
@@ -3621,7 +4132,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
@@ -3647,6 +4158,24 @@
     <font>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF262626"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF262626"/>
+      <name val="宋体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4033,7 +4562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -4097,6 +4626,15 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFEAEAEA"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -4211,31 +4749,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4244,119 +4770,131 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4387,20 +4925,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5002,7 +5549,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" ht="15.2" spans="1:5">
@@ -5039,7 +5586,7 @@
     </row>
     <row r="7" ht="15.2" spans="1:5">
       <c r="C7" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" s="3">
         <v>5</v>
@@ -5063,7 +5610,7 @@
     </row>
     <row r="10" ht="15.2" spans="1:5">
       <c r="C10" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" s="3">
         <v>2</v>
@@ -5143,7 +5690,7 @@
     </row>
     <row r="20" ht="15.2" spans="3:4">
       <c r="C20" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D20" s="3">
         <v>2</v>
@@ -5167,7 +5714,7 @@
     </row>
     <row r="23" ht="15.2" spans="3:4">
       <c r="C23" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -5181,9 +5728,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:4">
+    <row r="25" ht="15.2" spans="3:4">
       <c r="C25" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -5191,13 +5738,13 @@
     </row>
     <row r="26" ht="16" spans="3:4">
       <c r="C26" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:4">
+    <row r="27" ht="15.2" spans="3:4">
       <c r="C27" s="3" t="s">
         <v>73</v>
       </c>
@@ -5215,7 +5762,7 @@
     </row>
     <row r="29" ht="15.2" spans="3:4">
       <c r="C29" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -5231,7 +5778,7 @@
     </row>
     <row r="31" ht="15.2" spans="3:4">
       <c r="C31" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -5239,7 +5786,7 @@
     </row>
     <row r="32" ht="15.2" spans="3:4">
       <c r="C32" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -5247,7 +5794,7 @@
     </row>
     <row r="33" ht="15.2" spans="3:4">
       <c r="C33" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -5263,7 +5810,7 @@
     </row>
     <row r="35" ht="15.2" spans="3:4">
       <c r="C35" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -5271,7 +5818,7 @@
     </row>
     <row r="36" ht="15.2" spans="3:4">
       <c r="C36" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -5295,7 +5842,7 @@
     </row>
     <row r="39" ht="15.2" spans="3:4">
       <c r="C39" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -5346,7 +5893,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -5391,7 +5938,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5436,7 +5983,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -5481,7 +6028,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -5529,7 +6076,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5544,15 +6091,16 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="天主教領島學校"/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.3984375" customWidth="1"/>
+    <col min="3" max="3" width="51.9453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -5576,8 +6124,119 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="E2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="C3" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="C4" s="10" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="C5" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="C6" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="C7" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="C8" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="C9" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="C10" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="C11" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="C12" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:5">
+      <c r="C13" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
+      <c r="C14" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:5">
+      <c r="C15" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
+      <c r="C16" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:3">
+      <c r="C17" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:3">
+      <c r="C18" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:3">
+      <c r="C19" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:3">
+      <c r="C20" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:3">
+      <c r="C21" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:3">
+      <c r="C22" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:3">
+      <c r="C23" s="10" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -5625,7 +6284,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5719,7 +6378,7 @@
         <v>2025</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -5767,7 +6426,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="C8" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -5775,7 +6434,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="C9" s="3" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -5799,7 +6458,7 @@
     </row>
     <row r="12" customHeight="1" spans="1:5">
       <c r="C12" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
@@ -5807,7 +6466,7 @@
     </row>
     <row r="13" customHeight="1" spans="1:5">
       <c r="C13" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -5815,7 +6474,7 @@
     </row>
     <row r="14" customHeight="1" spans="1:5">
       <c r="C14" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
@@ -5831,7 +6490,7 @@
     </row>
     <row r="16" customHeight="1" spans="1:5">
       <c r="C16" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
@@ -5839,7 +6498,7 @@
     </row>
     <row r="17" customHeight="1" spans="2:4">
       <c r="C17" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D17" s="3">
         <v>9</v>
@@ -5847,7 +6506,7 @@
     </row>
     <row r="18" customHeight="1" spans="2:4">
       <c r="C18" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -5855,7 +6514,7 @@
     </row>
     <row r="19" customHeight="1" spans="2:4">
       <c r="C19" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D19" s="3">
         <v>2</v>
@@ -5863,7 +6522,7 @@
     </row>
     <row r="20" customHeight="1" spans="2:4">
       <c r="C20" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -5871,7 +6530,7 @@
     </row>
     <row r="21" customHeight="1" spans="2:4">
       <c r="C21" s="3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -5879,7 +6538,7 @@
     </row>
     <row r="22" customHeight="1" spans="2:4">
       <c r="C22" s="3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -5887,7 +6546,7 @@
     </row>
     <row r="23" customHeight="1" spans="2:4">
       <c r="C23" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -5895,7 +6554,7 @@
     </row>
     <row r="24" customHeight="1" spans="2:4">
       <c r="C24" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D24" s="3">
         <v>4</v>
@@ -5903,7 +6562,7 @@
     </row>
     <row r="25" customHeight="1" spans="2:4">
       <c r="C25" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -5930,7 +6589,7 @@
     </row>
     <row r="28" customHeight="1" spans="2:4">
       <c r="C28" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -6002,7 +6661,7 @@
     </row>
     <row r="37" customHeight="1" spans="3:4">
       <c r="C37" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D37" s="3">
         <v>3</v>
@@ -6010,7 +6669,7 @@
     </row>
     <row r="38" customHeight="1" spans="3:4">
       <c r="C38" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D38" s="3">
         <v>3</v>
@@ -6018,7 +6677,7 @@
     </row>
     <row r="39" customHeight="1" spans="3:4">
       <c r="C39" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D39" s="3">
         <v>2</v>
@@ -6026,7 +6685,7 @@
     </row>
     <row r="40" customHeight="1" spans="3:4">
       <c r="C40" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D40" s="3">
         <v>3</v>
@@ -6034,7 +6693,7 @@
     </row>
     <row r="41" customHeight="1" spans="3:4">
       <c r="C41" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -6042,7 +6701,7 @@
     </row>
     <row r="42" customHeight="1" spans="3:4">
       <c r="C42" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
@@ -6050,7 +6709,7 @@
     </row>
     <row r="43" customHeight="1" spans="3:4">
       <c r="C43" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
@@ -6058,7 +6717,7 @@
     </row>
     <row r="44" customHeight="1" spans="3:4">
       <c r="C44" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
@@ -6066,7 +6725,7 @@
     </row>
     <row r="45" customHeight="1" spans="3:4">
       <c r="C45" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
@@ -6074,7 +6733,7 @@
     </row>
     <row r="46" customHeight="1" spans="3:4">
       <c r="C46" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
@@ -6082,7 +6741,7 @@
     </row>
     <row r="47" customHeight="1" spans="3:4">
       <c r="C47" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="3">
         <v>7</v>
@@ -6090,7 +6749,7 @@
     </row>
     <row r="48" customHeight="1" spans="3:4">
       <c r="C48" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
@@ -6098,7 +6757,7 @@
     </row>
     <row r="49" customHeight="1" spans="3:4">
       <c r="C49" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
@@ -6106,7 +6765,7 @@
     </row>
     <row r="50" customHeight="1" spans="3:4">
       <c r="C50" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
@@ -6114,7 +6773,7 @@
     </row>
     <row r="51" customHeight="1" spans="3:4">
       <c r="C51" s="3" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
@@ -6122,7 +6781,7 @@
     </row>
     <row r="52" customHeight="1" spans="3:4">
       <c r="C52" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
@@ -6143,7 +6802,7 @@
   <sheetPr codeName="保良局林文燦英文小學"/>
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -6751,7 +7410,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="C9" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D9" s="3">
         <v>11</v>
@@ -6783,7 +7442,7 @@
     </row>
     <row r="13" customHeight="1" spans="1:5">
       <c r="C13" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -6791,7 +7450,7 @@
     </row>
     <row r="14" customHeight="1" spans="1:5">
       <c r="C14" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D14" s="3">
         <v>7</v>
@@ -6807,7 +7466,7 @@
     </row>
     <row r="16" customHeight="1" spans="1:5">
       <c r="C16" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -6815,7 +7474,7 @@
     </row>
     <row r="17" customHeight="1" spans="3:4">
       <c r="C17" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
@@ -6823,7 +7482,7 @@
     </row>
     <row r="18" customHeight="1" spans="3:4">
       <c r="C18" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -6831,7 +7490,7 @@
     </row>
     <row r="19" customHeight="1" spans="3:4">
       <c r="C19" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -6839,7 +7498,7 @@
     </row>
     <row r="20" customHeight="1" spans="3:4">
       <c r="C20" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -6847,7 +7506,7 @@
     </row>
     <row r="21" customHeight="1" spans="3:4">
       <c r="C21" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -6855,7 +7514,7 @@
     </row>
     <row r="22" customHeight="1" spans="3:4">
       <c r="C22" s="3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -6863,7 +7522,7 @@
     </row>
     <row r="23" customHeight="1" spans="3:4">
       <c r="C23" s="3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -6871,7 +7530,7 @@
     </row>
     <row r="24" customHeight="1" spans="3:4">
       <c r="C24" s="3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -6879,7 +7538,7 @@
     </row>
     <row r="25" customHeight="1" spans="3:4">
       <c r="C25" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -6887,7 +7546,7 @@
     </row>
     <row r="26" customHeight="1" spans="3:4">
       <c r="C26" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -6895,7 +7554,7 @@
     </row>
     <row r="27" customHeight="1" spans="3:4">
       <c r="C27" s="3" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -6903,7 +7562,7 @@
     </row>
     <row r="28" customHeight="1" spans="3:4">
       <c r="C28" s="3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -6911,7 +7570,7 @@
     </row>
     <row r="29" customHeight="1" spans="3:4">
       <c r="C29" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -6919,7 +7578,7 @@
     </row>
     <row r="30" customHeight="1" spans="3:4">
       <c r="C30" s="3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -6927,7 +7586,7 @@
     </row>
     <row r="31" customHeight="1" spans="3:4">
       <c r="C31" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -6981,7 +7640,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
@@ -7672,7 +8331,7 @@
     </row>
     <row r="7" ht="15.2" spans="1:5">
       <c r="C7" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -7688,7 +8347,7 @@
     </row>
     <row r="9" ht="15.2" spans="1:5">
       <c r="C9" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -7696,7 +8355,7 @@
     </row>
     <row r="10" ht="15.2" spans="1:5">
       <c r="C10" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="3">
         <v>3</v>
@@ -7704,7 +8363,7 @@
     </row>
     <row r="11" ht="16" spans="1:5">
       <c r="C11" s="8" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -7712,7 +8371,7 @@
     </row>
     <row r="12" ht="15.2" spans="1:5">
       <c r="C12" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12" s="3">
         <v>6</v>
@@ -7720,7 +8379,7 @@
     </row>
     <row r="13" ht="15.2" spans="1:5">
       <c r="C13" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
@@ -7728,7 +8387,7 @@
     </row>
     <row r="14" ht="15.2" spans="1:5">
       <c r="C14" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -7736,7 +8395,7 @@
     </row>
     <row r="15" ht="15.2" spans="1:5">
       <c r="C15" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
@@ -7744,7 +8403,7 @@
     </row>
     <row r="16" ht="15.2" spans="1:5">
       <c r="C16" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
@@ -7752,7 +8411,7 @@
     </row>
     <row r="17" ht="15.2" spans="3:4">
       <c r="C17" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
@@ -7760,7 +8419,7 @@
     </row>
     <row r="18" ht="15.2" spans="3:4">
       <c r="C18" s="3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -7768,7 +8427,7 @@
     </row>
     <row r="19" ht="15.2" spans="3:4">
       <c r="C19" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -7824,9 +8483,9 @@
     </row>
     <row r="26" ht="25.5" customHeight="1" spans="3:4">
       <c r="C26" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="10">
+        <v>146</v>
+      </c>
+      <c r="D26" s="13">
         <v>2</v>
       </c>
     </row>
@@ -7856,7 +8515,7 @@
     </row>
     <row r="30" ht="15.2" spans="3:4">
       <c r="C30" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D30" s="3">
         <v>5</v>
@@ -7872,7 +8531,7 @@
     </row>
     <row r="32" ht="15.2" spans="3:4">
       <c r="C32" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D32" s="3">
         <v>11</v>
@@ -7880,7 +8539,7 @@
     </row>
     <row r="33" ht="15.2" spans="3:4">
       <c r="C33" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D33" s="3">
         <v>4</v>
@@ -7888,7 +8547,7 @@
     </row>
     <row r="34" ht="15.2" spans="3:4">
       <c r="C34" s="3" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -7896,7 +8555,7 @@
     </row>
     <row r="35" ht="15.2" spans="3:4">
       <c r="C35" s="3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -7904,7 +8563,7 @@
     </row>
     <row r="36" ht="15.2" spans="3:4">
       <c r="C36" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D36" s="3">
         <v>5</v>
@@ -7912,7 +8571,7 @@
     </row>
     <row r="37" ht="15.2" spans="3:4">
       <c r="C37" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D37" s="3">
         <v>2</v>
@@ -7930,10 +8589,10 @@
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="中華基督教會灣仔堂基道小學（九龍城）"/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -7963,126 +8622,233 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="B2" s="12">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="C3" s="3"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="C4" s="3"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="C5" s="3"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="C6" s="3"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="C7" s="3"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="C8" s="3"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="C9" s="3"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" customHeight="1" spans="1:5">
-      <c r="C10" s="3"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" customHeight="1" spans="1:5">
-      <c r="C11" s="3"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="10" t="s">
+        <v>224</v>
+      </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" customHeight="1" spans="1:5">
-      <c r="C12" s="3"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" customHeight="1" spans="1:5">
-      <c r="C13" s="3"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="10" t="s">
+        <v>82</v>
+      </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" customHeight="1" spans="1:5">
-      <c r="C14" s="3"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" customHeight="1" spans="1:5">
-      <c r="C15" s="3"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="C16" s="3"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" customHeight="1" spans="3:4">
-      <c r="C17" s="3"/>
+    <row r="17" customHeight="1" spans="2:4">
+      <c r="B17" s="12"/>
+      <c r="C17" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" customHeight="1" spans="3:4">
-      <c r="C18" s="3"/>
+    <row r="18" customHeight="1" spans="2:4">
+      <c r="B18" s="12"/>
+      <c r="C18" s="10" t="s">
+        <v>225</v>
+      </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" customHeight="1" spans="3:4">
-      <c r="C19" s="3"/>
+    <row r="19" customHeight="1" spans="2:4">
+      <c r="B19" s="12"/>
+      <c r="C19" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" customHeight="1" spans="3:4">
-      <c r="C20" s="3"/>
+    <row r="20" customHeight="1" spans="2:4">
+      <c r="B20" s="12"/>
+      <c r="C20" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" customHeight="1" spans="3:4">
-      <c r="C21" s="3"/>
+    <row r="21" customHeight="1" spans="2:4">
+      <c r="B21" s="12"/>
+      <c r="C21" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" customHeight="1" spans="3:4">
-      <c r="C22" s="3"/>
+    <row r="22" customHeight="1" spans="2:4">
+      <c r="B22" s="12"/>
+      <c r="C22" s="10" t="s">
+        <v>103</v>
+      </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" customHeight="1" spans="3:4">
-      <c r="C23" s="3"/>
+    <row r="23" customHeight="1" spans="2:4">
+      <c r="B23" s="12"/>
+      <c r="C23" s="10" t="s">
+        <v>227</v>
+      </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" customHeight="1" spans="3:4">
-      <c r="C24" s="3"/>
+    <row r="24" customHeight="1" spans="2:4">
+      <c r="B24" s="12"/>
+      <c r="C24" s="10" t="s">
+        <v>228</v>
+      </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" customHeight="1" spans="3:4">
-      <c r="C25" s="3"/>
+    <row r="25" customHeight="1" spans="2:4">
+      <c r="B25" s="12"/>
+      <c r="C25" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" customHeight="1" spans="3:4">
-      <c r="C26" s="3"/>
+    <row r="26" customHeight="1" spans="2:4">
+      <c r="B26" s="12"/>
+      <c r="C26" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" customHeight="1" spans="3:4">
-      <c r="C27" s="3"/>
+    <row r="27" customHeight="1" spans="2:4">
+      <c r="B27" s="12"/>
+      <c r="C27" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" customHeight="1" spans="3:4">
-      <c r="C28" s="3"/>
+    <row r="28" customHeight="1" spans="2:4">
+      <c r="B28" s="12"/>
+      <c r="C28" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" customHeight="1" spans="3:4">
-      <c r="C29" s="3"/>
+    <row r="29" customHeight="1" spans="2:4">
+      <c r="B29" s="12"/>
+      <c r="C29" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" customHeight="1" spans="3:4">
-      <c r="C30" s="3"/>
+    <row r="30" customHeight="1" spans="2:4">
+      <c r="B30" s="12"/>
+      <c r="C30" s="10" t="s">
+        <v>230</v>
+      </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" customHeight="1" spans="3:4">
-      <c r="C31" s="3"/>
+    <row r="31" customHeight="1" spans="2:4">
+      <c r="B31" s="12"/>
+      <c r="C31" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="D31" s="3"/>
     </row>
+    <row r="32" customHeight="1" spans="2:4">
+      <c r="B32" s="12"/>
+      <c r="C32" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="2:3">
+      <c r="B33" s="12"/>
+      <c r="C33" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B33"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -8127,7 +8893,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
@@ -8294,7 +9060,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
@@ -8461,7 +9227,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
@@ -8673,7 +9439,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
@@ -8840,7 +9606,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
@@ -9016,7 +9782,7 @@
     </row>
     <row r="3" ht="15.2" spans="1:5">
       <c r="C3" s="3" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -9024,7 +9790,7 @@
     </row>
     <row r="4" ht="15.2" spans="1:5">
       <c r="C4" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
@@ -9064,7 +9830,7 @@
     </row>
     <row r="9" ht="15.2" spans="1:5">
       <c r="C9" s="3" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -9080,7 +9846,7 @@
     </row>
     <row r="11" ht="15.2" spans="1:5">
       <c r="C11" s="3" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -9088,7 +9854,7 @@
     </row>
     <row r="12" ht="15.2" spans="1:5">
       <c r="C12" s="3" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -9096,7 +9862,7 @@
     </row>
     <row r="13" ht="15.2" spans="1:5">
       <c r="C13" s="3" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
@@ -9104,7 +9870,7 @@
     </row>
     <row r="14" ht="15.2" spans="1:5">
       <c r="C14" s="3" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -9112,7 +9878,7 @@
     </row>
     <row r="15" ht="15.2" spans="1:5">
       <c r="C15" s="3" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -9120,7 +9886,7 @@
     </row>
     <row r="16" ht="15.2" spans="1:5">
       <c r="C16" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -9144,7 +9910,7 @@
     </row>
     <row r="19" ht="15.2" spans="3:4">
       <c r="C19" s="3" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -9160,7 +9926,7 @@
     </row>
     <row r="21" ht="15.2" spans="3:4">
       <c r="C21" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -9168,7 +9934,7 @@
     </row>
     <row r="22" ht="15.2" spans="3:4">
       <c r="C22" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -9184,7 +9950,7 @@
     </row>
     <row r="24" ht="15.2" spans="3:4">
       <c r="C24" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -9192,7 +9958,7 @@
     </row>
     <row r="25" ht="15.2" spans="3:4">
       <c r="C25" s="3" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -9200,7 +9966,7 @@
     </row>
     <row r="26" ht="15.2" spans="3:4">
       <c r="C26" s="3" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -9216,7 +9982,7 @@
     </row>
     <row r="28" ht="15.2" spans="3:4">
       <c r="C28" s="3" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -9224,7 +9990,7 @@
     </row>
     <row r="29" ht="15.2" spans="3:4">
       <c r="C29" s="3" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -9232,7 +9998,7 @@
     </row>
     <row r="30" ht="15.2" spans="3:4">
       <c r="C30" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -9302,7 +10068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="3:4">
+    <row r="39" ht="15.2" spans="3:4">
       <c r="C39" s="3" t="s">
         <v>112</v>
       </c>
@@ -9312,15 +10078,15 @@
     </row>
     <row r="40" ht="16" spans="3:4">
       <c r="C40" s="8" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="D40" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="3:4">
+    <row r="41" ht="15.2" spans="3:4">
       <c r="C41" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -9328,7 +10094,7 @@
     </row>
     <row r="42" ht="15.2" spans="3:4">
       <c r="C42" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D42" s="3">
         <v>7</v>
@@ -9336,15 +10102,15 @@
     </row>
     <row r="43" ht="15.2" spans="3:4">
       <c r="C43" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="3:4">
+    <row r="44" ht="15.2" spans="3:4">
       <c r="C44" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="3">
         <v>7</v>
@@ -9352,15 +10118,15 @@
     </row>
     <row r="45" ht="16" spans="3:4">
       <c r="C45" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="3:4">
+    <row r="46" ht="15.2" spans="3:4">
       <c r="C46" s="3" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="D46" s="3">
         <v>2</v>
@@ -9368,7 +10134,7 @@
     </row>
     <row r="47" ht="15.2" spans="3:4">
       <c r="C47" s="3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
@@ -9384,7 +10150,7 @@
     </row>
     <row r="49" ht="15.2" spans="2:4">
       <c r="C49" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D49" s="3">
         <v>4</v>
@@ -9392,7 +10158,7 @@
     </row>
     <row r="50" ht="15.2" spans="2:4">
       <c r="C50" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" s="3">
         <v>4</v>
@@ -9400,7 +10166,7 @@
     </row>
     <row r="51" ht="15.2" spans="2:4">
       <c r="C51" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D51" s="3">
         <v>3</v>
@@ -9408,7 +10174,7 @@
     </row>
     <row r="52" ht="15.2" spans="2:4">
       <c r="C52" s="3" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
@@ -9416,7 +10182,7 @@
     </row>
     <row r="53" ht="15.2" spans="2:4">
       <c r="C53" s="3" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="D53" s="3">
         <v>1</v>
@@ -9424,7 +10190,7 @@
     </row>
     <row r="54" ht="15.2" spans="2:4">
       <c r="C54" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D54" s="3">
         <v>1</v>
@@ -9432,7 +10198,7 @@
     </row>
     <row r="55" ht="15.2" spans="2:4">
       <c r="C55" s="3" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="D55" s="3">
         <v>1</v>
@@ -9449,7 +10215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:4">
+    <row r="57" ht="15.2" spans="2:4">
       <c r="C57" s="3" t="s">
         <v>100</v>
       </c>
@@ -9459,13 +10225,13 @@
     </row>
     <row r="58" ht="16" spans="2:4">
       <c r="C58" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="D58" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" ht="15.2" spans="2:4">
       <c r="C59" s="3" t="s">
         <v>73</v>
       </c>
@@ -9499,7 +10265,7 @@
     </row>
     <row r="63" ht="15.2" spans="2:4">
       <c r="C63" s="3" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D63" s="3">
         <v>1</v>
@@ -9515,7 +10281,7 @@
     </row>
     <row r="65" ht="15.2" spans="3:4">
       <c r="C65" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D65" s="3">
         <v>2</v>
@@ -9531,7 +10297,7 @@
     </row>
     <row r="67" ht="15.2" spans="3:4">
       <c r="C67" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D67" s="3">
         <v>4</v>
@@ -9539,7 +10305,7 @@
     </row>
     <row r="68" ht="15.2" spans="3:4">
       <c r="C68" s="3" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D68" s="3">
         <v>1</v>
@@ -9547,7 +10313,7 @@
     </row>
     <row r="69" ht="15.2" spans="3:4">
       <c r="C69" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D69" s="3">
         <v>1</v>
@@ -9555,7 +10321,7 @@
     </row>
     <row r="70" ht="15.2" spans="3:4">
       <c r="C70" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D70" s="3">
         <v>7</v>
@@ -9563,7 +10329,7 @@
     </row>
     <row r="71" ht="15.2" spans="3:4">
       <c r="C71" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D71" s="3">
         <v>10</v>
@@ -9571,7 +10337,7 @@
     </row>
     <row r="72" ht="15.2" spans="3:4">
       <c r="C72" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D72" s="3">
         <v>3</v>
@@ -9579,7 +10345,7 @@
     </row>
     <row r="73" ht="15.2" spans="3:4">
       <c r="C73" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D73" s="3">
         <v>2</v>
@@ -9587,7 +10353,7 @@
     </row>
     <row r="74" ht="15.2" spans="3:4">
       <c r="C74" s="3" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="D74" s="3">
         <v>1</v>
@@ -9595,7 +10361,7 @@
     </row>
     <row r="75" ht="15.2" spans="3:4">
       <c r="C75" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D75" s="3">
         <v>1</v>
@@ -9603,7 +10369,7 @@
     </row>
     <row r="76" ht="15.2" spans="3:4">
       <c r="C76" s="3" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
@@ -9611,7 +10377,7 @@
     </row>
     <row r="77" ht="15.2" spans="3:4">
       <c r="C77" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D77" s="3">
         <v>1</v>
@@ -9619,7 +10385,7 @@
     </row>
     <row r="78" ht="15.2" spans="3:4">
       <c r="C78" s="3" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="D78" s="3">
         <v>1</v>
@@ -9643,7 +10409,7 @@
     </row>
     <row r="81" ht="15.2" spans="3:4">
       <c r="C81" s="3" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="D81" s="3">
         <v>2</v>
@@ -9699,7 +10465,7 @@
     </row>
     <row r="88" ht="15.2" spans="3:4">
       <c r="C88" s="3" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D88" s="3">
         <v>1</v>
@@ -9707,7 +10473,7 @@
     </row>
     <row r="89" ht="15.2" spans="3:4">
       <c r="C89" s="3" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="D89" s="3">
         <v>1</v>
@@ -9731,7 +10497,7 @@
     </row>
     <row r="92" ht="15.2" spans="3:4">
       <c r="C92" s="3" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="D92" s="3">
         <v>1</v>
@@ -9747,7 +10513,7 @@
     </row>
     <row r="94" ht="15.2" spans="3:4">
       <c r="C94" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D94" s="3">
         <v>2</v>
@@ -9755,7 +10521,7 @@
     </row>
     <row r="95" ht="15.2" spans="3:4">
       <c r="C95" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D95" s="3">
         <v>2</v>
@@ -9763,7 +10529,7 @@
     </row>
     <row r="96" ht="15.2" spans="3:4">
       <c r="C96" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D96" s="3">
         <v>1</v>
@@ -9771,7 +10537,7 @@
     </row>
     <row r="97" ht="15.2" spans="2:4">
       <c r="C97" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D97" s="3">
         <v>4</v>
@@ -9779,7 +10545,7 @@
     </row>
     <row r="98" ht="15.2" spans="2:4">
       <c r="C98" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D98" s="3">
         <v>7</v>
@@ -9787,7 +10553,7 @@
     </row>
     <row r="99" ht="15.2" spans="2:4">
       <c r="C99" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D99" s="3">
         <v>7</v>
@@ -9795,7 +10561,7 @@
     </row>
     <row r="100" ht="15.2" spans="2:4">
       <c r="C100" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D100" s="3">
         <v>1</v>
@@ -9803,7 +10569,7 @@
     </row>
     <row r="101" ht="15.2" spans="2:4">
       <c r="C101" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D101" s="3">
         <v>6</v>
@@ -9811,7 +10577,7 @@
     </row>
     <row r="102" ht="15.2" spans="2:4">
       <c r="C102" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D102" s="3">
         <v>1</v>
@@ -9854,7 +10620,7 @@
     </row>
     <row r="107" ht="15.2" spans="2:4">
       <c r="C107" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D107" s="3">
         <v>1</v>
@@ -9902,7 +10668,7 @@
     </row>
     <row r="113" ht="15.2" spans="3:4">
       <c r="C113" s="3" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="D113" s="3">
         <v>2</v>
@@ -9918,7 +10684,7 @@
     </row>
     <row r="115" ht="15.2" spans="3:4">
       <c r="C115" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D115" s="3">
         <v>3</v>
@@ -9942,7 +10708,7 @@
     </row>
     <row r="118" ht="15.2" spans="3:4">
       <c r="C118" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D118" s="3">
         <v>3</v>
@@ -9958,7 +10724,7 @@
     </row>
     <row r="120" ht="15.2" spans="3:4">
       <c r="C120" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D120" s="3">
         <v>3</v>
@@ -9966,7 +10732,7 @@
     </row>
     <row r="121" ht="15.2" spans="3:4">
       <c r="C121" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D121" s="3">
         <v>3</v>
@@ -9974,7 +10740,7 @@
     </row>
     <row r="122" ht="15.2" spans="3:4">
       <c r="C122" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D122" s="3">
         <v>6</v>
@@ -9982,7 +10748,7 @@
     </row>
     <row r="123" ht="15.2" spans="3:4">
       <c r="C123" s="3" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D123" s="3">
         <v>1</v>
@@ -9990,7 +10756,7 @@
     </row>
     <row r="124" ht="15.2" spans="3:4">
       <c r="C124" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D124" s="3">
         <v>6</v>
@@ -9998,7 +10764,7 @@
     </row>
     <row r="125" ht="15.2" spans="3:4">
       <c r="C125" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D125" s="3">
         <v>1</v>
@@ -10006,7 +10772,7 @@
     </row>
     <row r="126" ht="15.2" spans="3:4">
       <c r="C126" s="3" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D126" s="3">
         <v>1</v>
@@ -10014,7 +10780,7 @@
     </row>
     <row r="127" ht="15.2" spans="3:4">
       <c r="C127" s="3" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D127" s="3">
         <v>1</v>
@@ -10022,7 +10788,7 @@
     </row>
     <row r="128" ht="15.2" spans="3:4">
       <c r="C128" s="3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="D128" s="3">
         <v>1</v>
@@ -10030,7 +10796,7 @@
     </row>
     <row r="129" ht="15.2" spans="3:4">
       <c r="C129" s="3" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="D129" s="3">
         <v>1</v>
@@ -10054,7 +10820,7 @@
     </row>
     <row r="132" ht="15.2" spans="3:4">
       <c r="C132" s="3" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="D132" s="3">
         <v>1</v>
@@ -10102,7 +10868,7 @@
     </row>
     <row r="138" ht="15.2" spans="3:4">
       <c r="C138" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D138" s="3">
         <v>1</v>
@@ -10134,7 +10900,7 @@
     </row>
     <row r="142" ht="15.2" spans="3:4">
       <c r="C142" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D142" s="3">
         <v>1</v>
@@ -10166,7 +10932,7 @@
     </row>
     <row r="146" ht="15.2" spans="3:4">
       <c r="C146" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D146" s="3">
         <v>3</v>
@@ -10174,7 +10940,7 @@
     </row>
     <row r="147" ht="15.2" spans="3:4">
       <c r="C147" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D147" s="3">
         <v>9</v>
@@ -10182,7 +10948,7 @@
     </row>
     <row r="148" ht="15.2" spans="3:4">
       <c r="C148" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D148" s="3">
         <v>7</v>
@@ -10190,7 +10956,7 @@
     </row>
     <row r="149" ht="15.2" spans="3:4">
       <c r="C149" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D149" s="3">
         <v>2</v>
@@ -10198,7 +10964,7 @@
     </row>
     <row r="150" ht="15.2" spans="3:4">
       <c r="C150" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D150" s="3">
         <v>4</v>
@@ -10206,7 +10972,7 @@
     </row>
     <row r="151" ht="15.2" spans="3:4">
       <c r="C151" s="3" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="D151" s="3">
         <v>1</v>
@@ -10214,7 +10980,7 @@
     </row>
     <row r="152" ht="15.2" spans="3:4">
       <c r="C152" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D152" s="3">
         <v>1</v>
@@ -10222,7 +10988,7 @@
     </row>
     <row r="153" ht="15.2" spans="3:4">
       <c r="C153" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D153" s="3">
         <v>1</v>
@@ -10230,7 +10996,7 @@
     </row>
     <row r="154" ht="15.2" spans="3:4">
       <c r="C154" s="3" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="D154" s="3">
         <v>1</v>
@@ -10250,10 +11016,10 @@
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="聖公會奉基千禧小學"/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -10283,127 +11049,250 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="B2">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="C3" s="3"/>
+      <c r="C3" s="11" t="s">
+        <v>275</v>
+      </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="C4" s="3"/>
+      <c r="C4" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="C5" s="3"/>
+      <c r="C5" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="C6" s="3"/>
+      <c r="C6" s="10" t="s">
+        <v>186</v>
+      </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="C7" s="3"/>
+      <c r="C7" s="10" t="s">
+        <v>272</v>
+      </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="C8" s="3"/>
+      <c r="C8" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="C9" s="3"/>
+      <c r="C9" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" customHeight="1" spans="1:5">
-      <c r="C10" s="3"/>
+      <c r="C10" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" customHeight="1" spans="1:5">
-      <c r="C11" s="3"/>
+      <c r="C11" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" customHeight="1" spans="1:5">
-      <c r="C12" s="3"/>
+      <c r="C12" s="10" t="s">
+        <v>82</v>
+      </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" customHeight="1" spans="1:5">
-      <c r="C13" s="3"/>
+      <c r="C13" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" customHeight="1" spans="1:5">
-      <c r="C14" s="3"/>
+      <c r="C14" s="11" t="s">
+        <v>276</v>
+      </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" customHeight="1" spans="1:5">
-      <c r="C15" s="3"/>
+      <c r="C15" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="C16" s="3"/>
+      <c r="C16" s="10" t="s">
+        <v>277</v>
+      </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" customHeight="1" spans="3:4">
-      <c r="C17" s="3"/>
+      <c r="C17" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" customHeight="1" spans="3:4">
-      <c r="C18" s="3"/>
+      <c r="C18" s="10" t="s">
+        <v>278</v>
+      </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" customHeight="1" spans="3:4">
-      <c r="C19" s="3"/>
+      <c r="C19" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" customHeight="1" spans="3:4">
-      <c r="C20" s="3"/>
+      <c r="C20" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" customHeight="1" spans="3:4">
-      <c r="C21" s="3"/>
+      <c r="C21" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" customHeight="1" spans="3:4">
-      <c r="C22" s="3"/>
+      <c r="C22" s="10" t="s">
+        <v>279</v>
+      </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" customHeight="1" spans="3:4">
-      <c r="C23" s="3"/>
+      <c r="C23" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" customHeight="1" spans="3:4">
-      <c r="C24" s="3"/>
+      <c r="C24" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" customHeight="1" spans="3:4">
-      <c r="C25" s="3"/>
+      <c r="C25" s="10" t="s">
+        <v>131</v>
+      </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" customHeight="1" spans="3:4">
-      <c r="C26" s="3"/>
+      <c r="C26" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" customHeight="1" spans="3:4">
-      <c r="C27" s="3"/>
+      <c r="C27" s="10" t="s">
+        <v>138</v>
+      </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" customHeight="1" spans="3:4">
-      <c r="C28" s="3"/>
+      <c r="C28" s="10" t="s">
+        <v>280</v>
+      </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" customHeight="1" spans="3:4">
-      <c r="C29" s="3"/>
+      <c r="C29" s="10" t="s">
+        <v>281</v>
+      </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" customHeight="1" spans="3:4">
-      <c r="C30" s="3"/>
+      <c r="C30" s="10" t="s">
+        <v>282</v>
+      </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31" customHeight="1" spans="3:4">
-      <c r="C31" s="3"/>
+      <c r="C31" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="D31" s="3"/>
+    </row>
+    <row r="32" customHeight="1" spans="3:4">
+      <c r="C32" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:3">
+      <c r="C33" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:3">
+      <c r="C34" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:3">
+      <c r="C35" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:3">
+      <c r="C36" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:3">
+      <c r="C37" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:3">
+      <c r="C38" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:3">
+      <c r="C39" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:3">
+      <c r="C40" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:3">
+      <c r="C41" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:3">
+      <c r="C42" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:3">
+      <c r="C43" s="10" t="s">
+        <v>184</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10448,7 +11337,7 @@
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B2">
         <v>2025</v>
@@ -10510,7 +11399,7 @@
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:5">
       <c r="C9" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
@@ -10558,7 +11447,7 @@
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:5">
       <c r="C15" s="4" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
@@ -10566,7 +11455,7 @@
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:5">
       <c r="C16" s="4" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="D16" s="5">
         <v>4</v>
@@ -10574,7 +11463,7 @@
     </row>
     <row r="17" ht="19" customHeight="1" spans="3:4">
       <c r="C17" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
@@ -10598,7 +11487,7 @@
     </row>
     <row r="20" ht="19" customHeight="1" spans="3:4">
       <c r="C20" s="4" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
@@ -10606,7 +11495,7 @@
     </row>
     <row r="21" ht="19" customHeight="1" spans="3:4">
       <c r="C21" s="4" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="D21" s="5">
         <v>7</v>
@@ -10614,7 +11503,7 @@
     </row>
     <row r="22" ht="19" customHeight="1" spans="3:4">
       <c r="C22" s="4" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
@@ -10622,7 +11511,7 @@
     </row>
     <row r="23" ht="19" customHeight="1" spans="3:4">
       <c r="C23" s="4" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
@@ -10654,7 +11543,7 @@
     </row>
     <row r="27" ht="19" customHeight="1" spans="3:4">
       <c r="C27" s="4" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -10662,7 +11551,7 @@
     </row>
     <row r="28" ht="19" customHeight="1" spans="3:4">
       <c r="C28" s="4" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="D28" s="5">
         <v>2</v>
@@ -10670,7 +11559,7 @@
     </row>
     <row r="29" ht="19" customHeight="1" spans="3:4">
       <c r="C29" s="4" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="D29" s="5">
         <v>2</v>
@@ -10678,7 +11567,7 @@
     </row>
     <row r="30" ht="19" customHeight="1" spans="3:4">
       <c r="C30" s="4" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="D30" s="5">
         <v>4</v>
@@ -10686,7 +11575,7 @@
     </row>
     <row r="31" ht="19" customHeight="1" spans="3:4">
       <c r="C31" s="4" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="D31" s="5">
         <v>3</v>
@@ -10702,7 +11591,7 @@
     </row>
     <row r="33" ht="19" customHeight="1" spans="2:4">
       <c r="C33" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D33" s="5">
         <v>3</v>
@@ -10710,7 +11599,7 @@
     </row>
     <row r="34" ht="19" customHeight="1" spans="2:4">
       <c r="C34" s="4" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -10718,7 +11607,7 @@
     </row>
     <row r="35" ht="19" customHeight="1" spans="2:4">
       <c r="C35" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
@@ -10726,7 +11615,7 @@
     </row>
     <row r="36" ht="19" customHeight="1" spans="2:4">
       <c r="C36" s="6" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="D36" s="5">
         <v>7</v>
@@ -10734,7 +11623,7 @@
     </row>
     <row r="37" ht="19" customHeight="1" spans="2:4">
       <c r="C37" s="6" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="D37" s="5">
         <v>5</v>
@@ -10742,7 +11631,7 @@
     </row>
     <row r="38" ht="19" customHeight="1" spans="2:4">
       <c r="C38" s="4" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
@@ -10750,7 +11639,7 @@
     </row>
     <row r="39" ht="19" customHeight="1" spans="2:4">
       <c r="C39" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D39" s="5">
         <v>2</v>
@@ -10758,7 +11647,7 @@
     </row>
     <row r="40" ht="19" customHeight="1" spans="2:4">
       <c r="C40" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D40" s="5">
         <v>1</v>
@@ -10766,7 +11655,7 @@
     </row>
     <row r="41" ht="19" customHeight="1" spans="2:4">
       <c r="C41" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D41" s="5">
         <v>1</v>
@@ -10774,7 +11663,7 @@
     </row>
     <row r="42" ht="19" customHeight="1" spans="2:4">
       <c r="C42" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D42" s="5">
         <v>2</v>
@@ -10782,7 +11671,7 @@
     </row>
     <row r="43" ht="19" customHeight="1" spans="2:4">
       <c r="C43" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
@@ -10790,7 +11679,7 @@
     </row>
     <row r="44" ht="19" customHeight="1" spans="2:4">
       <c r="C44" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D44" s="5">
         <v>1</v>
@@ -10798,7 +11687,7 @@
     </row>
     <row r="45" ht="19" customHeight="1" spans="2:4">
       <c r="C45" s="4" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
@@ -10806,7 +11695,7 @@
     </row>
     <row r="46" ht="19" customHeight="1" spans="2:4">
       <c r="C46" s="4" t="s">
-        <v>276</v>
+        <v>183</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -10814,7 +11703,7 @@
     </row>
     <row r="47" ht="19" customHeight="1" spans="2:4">
       <c r="C47" s="4" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="D47" s="5">
         <v>1</v>
@@ -10857,13 +11746,13 @@
     </row>
     <row r="52" ht="16" spans="3:4">
       <c r="C52" s="7" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:4">
+    <row r="53" ht="15.2" spans="3:4">
       <c r="C53" s="7" t="s">
         <v>91</v>
       </c>
@@ -10871,7 +11760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="3:4">
+    <row r="54" ht="15.2" spans="3:4">
       <c r="C54" s="3" t="s">
         <v>72</v>
       </c>
@@ -10881,7 +11770,7 @@
     </row>
     <row r="55" ht="15.2" spans="3:4">
       <c r="C55" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D55" s="3">
         <v>1</v>
@@ -10903,7 +11792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="3:4">
+    <row r="58" ht="15.2" spans="3:4">
       <c r="C58" s="3" t="s">
         <v>88</v>
       </c>
@@ -10911,7 +11800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="3:4">
+    <row r="59" ht="15.2" spans="3:4">
       <c r="C59" s="7" t="s">
         <v>81</v>
       </c>
@@ -10921,13 +11810,13 @@
     </row>
     <row r="60" ht="16" spans="3:4">
       <c r="C60" s="8" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="D60" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="3:4">
+    <row r="61" ht="15.2" spans="3:4">
       <c r="C61" s="3" t="s">
         <v>82</v>
       </c>
@@ -10935,7 +11824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="3:4">
+    <row r="62" ht="16" spans="3:4">
       <c r="C62" s="8" t="s">
         <v>26</v>
       </c>
@@ -10943,7 +11832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="3:4">
+    <row r="63" ht="15.2" spans="3:4">
       <c r="C63" s="7" t="s">
         <v>104</v>
       </c>
@@ -10953,21 +11842,21 @@
     </row>
     <row r="64" ht="16" spans="3:4">
       <c r="C64" s="7" t="s">
-        <v>279</v>
+        <v>29</v>
       </c>
       <c r="D64" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="3:4">
+    <row r="65" ht="15.2" spans="3:4">
       <c r="C65" s="3" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="D65" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="3:4">
+    <row r="66" ht="15.2" spans="3:4">
       <c r="C66" s="7" t="s">
         <v>117</v>
       </c>
@@ -10975,15 +11864,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" ht="15.2" spans="3:4">
       <c r="C67" s="9" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="D67" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="3:4">
+    <row r="68" ht="16" spans="3:4">
       <c r="C68" s="8" t="s">
         <v>64</v>
       </c>
@@ -10991,7 +11880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="3:4">
+    <row r="69" ht="15.2" spans="3:4">
       <c r="C69" s="3" t="s">
         <v>103</v>
       </c>
@@ -11001,7 +11890,7 @@
     </row>
     <row r="70" ht="15.2" spans="3:4">
       <c r="C70" s="3" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D70" s="3">
         <v>1</v>
@@ -11009,7 +11898,7 @@
     </row>
     <row r="71" ht="15.2" spans="3:4">
       <c r="C71" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
@@ -11017,7 +11906,7 @@
     </row>
     <row r="72" ht="15.2" spans="3:4">
       <c r="C72" s="3" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="D72" s="3">
         <v>3</v>
@@ -11031,9 +11920,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="3:4">
+    <row r="74" ht="15.2" spans="3:4">
       <c r="C74" s="3" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="D74" s="3">
         <v>1</v>
@@ -11041,15 +11930,15 @@
     </row>
     <row r="75" ht="16" spans="3:4">
       <c r="C75" s="8" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="D75" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="3:4">
+    <row r="76" ht="15.2" spans="3:4">
       <c r="C76" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
@@ -11057,7 +11946,7 @@
     </row>
     <row r="77" ht="15.2" spans="3:4">
       <c r="C77" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D77" s="3">
         <v>5</v>
@@ -11065,13 +11954,13 @@
     </row>
     <row r="78" ht="16" spans="3:4">
       <c r="C78" s="8" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="D78" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="3:4">
+    <row r="79" ht="15.2" spans="3:4">
       <c r="C79" s="7" t="s">
         <v>120</v>
       </c>
@@ -11079,7 +11968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="3:4">
+    <row r="80" ht="15.2" spans="3:4">
       <c r="C80" s="3" t="s">
         <v>112</v>
       </c>
@@ -11087,17 +11976,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="2:4">
+    <row r="81" ht="15.2" spans="2:4">
       <c r="C81" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D81" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:4">
+    <row r="82" ht="15.2" spans="2:4">
       <c r="C82" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D82" s="3">
         <v>3</v>
@@ -11111,9 +12000,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:4">
+    <row r="84" ht="15.2" spans="2:4">
       <c r="C84" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D84" s="3">
         <v>11</v>
@@ -11121,7 +12010,7 @@
     </row>
     <row r="85" ht="15.2" spans="2:4">
       <c r="C85" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D85" s="3">
         <v>2</v>
@@ -11129,7 +12018,7 @@
     </row>
     <row r="86" ht="15.2" spans="2:4">
       <c r="C86" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D86" s="3">
         <v>2</v>
@@ -11137,45 +12026,45 @@
     </row>
     <row r="87" ht="15.2" spans="2:4">
       <c r="C87" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D87" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:4">
+    <row r="88" ht="15.2" spans="2:4">
       <c r="C88" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D88" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:4">
+    <row r="89" ht="15.2" spans="2:4">
       <c r="C89" s="7" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="D89" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:4">
+    <row r="90" ht="16" spans="2:4">
       <c r="C90" s="8" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="D90" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:4">
+    <row r="91" ht="15.2" spans="2:4">
       <c r="C91" s="7" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="D91" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:4">
+    <row r="92" ht="15.2" spans="2:4">
       <c r="B92">
         <v>2023</v>
       </c>
@@ -11204,7 +12093,7 @@
     </row>
     <row r="95" ht="16" spans="2:4">
       <c r="C95" s="7" t="s">
-        <v>289</v>
+        <v>34</v>
       </c>
       <c r="D95" s="3">
         <v>1</v>
@@ -11228,7 +12117,7 @@
     </row>
     <row r="98" ht="16" spans="3:4">
       <c r="C98" s="7" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="D98" s="3">
         <v>1</v>
@@ -11236,7 +12125,7 @@
     </row>
     <row r="99" ht="15.2" spans="3:4">
       <c r="C99" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D99" s="3">
         <v>2</v>
@@ -11252,7 +12141,7 @@
     </row>
     <row r="101" ht="15.2" spans="3:4">
       <c r="C101" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D101" s="3">
         <v>2</v>
@@ -11268,7 +12157,7 @@
     </row>
     <row r="103" ht="15.2" spans="3:4">
       <c r="C103" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D103" s="3">
         <v>3</v>
@@ -11290,7 +12179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="3:4">
+    <row r="106" ht="15.2" spans="3:4">
       <c r="C106" s="3" t="s">
         <v>88</v>
       </c>
@@ -11298,7 +12187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="3:4">
+    <row r="107" ht="15.2" spans="3:4">
       <c r="C107" s="7" t="s">
         <v>81</v>
       </c>
@@ -11308,13 +12197,13 @@
     </row>
     <row r="108" ht="16" spans="3:4">
       <c r="C108" s="8" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="D108" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="3:4">
+    <row r="109" ht="15.2" spans="3:4">
       <c r="C109" s="3" t="s">
         <v>82</v>
       </c>
@@ -11330,7 +12219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="3:4">
+    <row r="111" ht="15.2" spans="3:4">
       <c r="C111" s="3" t="s">
         <v>86</v>
       </c>
@@ -11340,7 +12229,7 @@
     </row>
     <row r="112" ht="15.2" spans="3:4">
       <c r="C112" s="3" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="D112" s="3">
         <v>1</v>
@@ -11348,13 +12237,13 @@
     </row>
     <row r="113" ht="15.2" spans="3:4">
       <c r="C113" s="3" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="D113" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="3:4">
+    <row r="114" ht="15.2" spans="3:4">
       <c r="C114" s="3" t="s">
         <v>116</v>
       </c>
@@ -11370,7 +12259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="3:4">
+    <row r="116" ht="15.2" spans="3:4">
       <c r="C116" s="3" t="s">
         <v>103</v>
       </c>
@@ -11396,15 +12285,15 @@
     </row>
     <row r="119" ht="15.2" spans="3:4">
       <c r="C119" s="3" t="s">
-        <v>292</v>
+        <v>230</v>
       </c>
       <c r="D119" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="3:4">
+    <row r="120" ht="15.2" spans="3:4">
       <c r="C120" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D120" s="3">
         <v>2</v>
@@ -11412,7 +12301,7 @@
     </row>
     <row r="121" ht="16" spans="3:4">
       <c r="C121" s="8" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="D121" s="3">
         <v>1</v>
@@ -11420,7 +12309,7 @@
     </row>
     <row r="122" ht="16" spans="3:4">
       <c r="C122" s="8" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="D122" s="3">
         <v>1</v>
@@ -11434,15 +12323,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="3:4">
+    <row r="124" ht="16" spans="3:4">
       <c r="C124" s="8" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="D124" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="3:4">
+    <row r="125" ht="15.2" spans="3:4">
       <c r="C125" s="3" t="s">
         <v>120</v>
       </c>
@@ -11452,7 +12341,7 @@
     </row>
     <row r="126" ht="15.2" spans="3:4">
       <c r="C126" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D126" s="3">
         <v>5</v>
@@ -11460,7 +12349,7 @@
     </row>
     <row r="127" ht="15.2" spans="3:4">
       <c r="C127" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D127" s="3">
         <v>5</v>
@@ -11468,7 +12357,7 @@
     </row>
     <row r="128" ht="15.2" spans="3:4">
       <c r="C128" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D128" s="3">
         <v>11</v>
@@ -11476,7 +12365,7 @@
     </row>
     <row r="129" ht="16" spans="3:4">
       <c r="C129" s="8" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="D129" s="3">
         <v>4</v>
@@ -11490,9 +12379,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="3:4">
+    <row r="131" ht="15.2" spans="3:4">
       <c r="C131" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D131" s="3">
         <v>1</v>
@@ -11500,7 +12389,7 @@
     </row>
     <row r="132" ht="15.2" spans="3:4">
       <c r="C132" s="3" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="D132" s="3">
         <v>2</v>
@@ -11508,7 +12397,7 @@
     </row>
     <row r="133" ht="15.2" spans="3:4">
       <c r="C133" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D133" s="3">
         <v>1</v>
@@ -11516,7 +12405,7 @@
     </row>
     <row r="134" ht="15.2" spans="3:4">
       <c r="C134" s="3" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D134" s="3">
         <v>1</v>
@@ -11572,7 +12461,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
@@ -11745,7 +12634,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="C3" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -11793,7 +12682,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="C9" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -11817,7 +12706,7 @@
     </row>
     <row r="12" customHeight="1" spans="1:5">
       <c r="C12" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -11833,7 +12722,7 @@
     </row>
     <row r="14" customHeight="1" spans="1:5">
       <c r="C14" s="3" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -11849,7 +12738,7 @@
     </row>
     <row r="16" customHeight="1" spans="1:5">
       <c r="C16" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
@@ -11857,7 +12746,7 @@
     </row>
     <row r="17" customHeight="1" spans="2:4">
       <c r="C17" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -11865,7 +12754,7 @@
     </row>
     <row r="18" customHeight="1" spans="2:4">
       <c r="C18" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
@@ -11873,7 +12762,7 @@
     </row>
     <row r="19" customHeight="1" spans="2:4">
       <c r="C19" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D19" s="3">
         <v>6</v>
@@ -11884,7 +12773,7 @@
         <v>2023</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -11932,7 +12821,7 @@
     </row>
     <row r="26" customHeight="1" spans="2:4">
       <c r="C26" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D26" s="3">
         <v>10</v>
@@ -11988,7 +12877,7 @@
     </row>
     <row r="33" customHeight="1" spans="3:4">
       <c r="C33" s="3" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="D33" s="3">
         <v>2</v>
@@ -11996,7 +12885,7 @@
     </row>
     <row r="34" customHeight="1" spans="3:4">
       <c r="C34" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D34" s="3">
         <v>2</v>
@@ -12004,7 +12893,7 @@
     </row>
     <row r="35" customHeight="1" spans="3:4">
       <c r="C35" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D35" s="3">
         <v>5</v>
@@ -12236,7 +13125,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
@@ -12419,7 +13308,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
@@ -13277,7 +14166,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
@@ -13634,7 +14523,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
@@ -13814,7 +14703,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
@@ -14171,7 +15060,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
@@ -14573,10 +15462,10 @@
       <c r="B2">
         <v>2025</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="15">
         <v>18</v>
       </c>
       <c r="E2" t="s">
@@ -14584,319 +15473,319 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="C8" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="C9" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="D10" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="C11" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="C12" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:5">
-      <c r="C8" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:5">
+      <c r="C13" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:5">
-      <c r="C9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:5">
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:5">
-      <c r="C11" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:5">
-      <c r="C12" s="11" t="s">
+    <row r="14" customHeight="1" spans="1:5">
+      <c r="C14" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:5">
-      <c r="C13" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:5">
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:5">
+      <c r="C15" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:5">
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
+      <c r="C16" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:5">
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:4">
+      <c r="C17" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:4">
+      <c r="C18" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:4">
+      <c r="C19" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D19" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="3:4">
-      <c r="C17" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:4">
-      <c r="C18" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:4">
-      <c r="C19" s="11" t="s">
+    <row r="20" customHeight="1" spans="3:4">
+      <c r="C20" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:4">
+      <c r="C21" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D21" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:4">
+      <c r="C22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="3:4">
-      <c r="C20" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:4">
-      <c r="C21" s="11" t="s">
+    <row r="23" customHeight="1" spans="3:4">
+      <c r="C23" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:4">
-      <c r="C22" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="12">
+      <c r="D23" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:4">
+      <c r="C24" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:4">
+      <c r="C25" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:4">
+      <c r="C26" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="3:4">
-      <c r="C23" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:4">
-      <c r="C24" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:4">
-      <c r="C25" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:4">
-      <c r="C26" s="11" t="s">
+    <row r="27" customHeight="1" spans="3:4">
+      <c r="C27" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:4">
+      <c r="C28" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:4">
+      <c r="C29" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="3:4">
-      <c r="C27" s="11" t="s">
+    <row r="30" customHeight="1" spans="3:4">
+      <c r="C30" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:4">
-      <c r="C28" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:4">
-      <c r="C29" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="12">
+      <c r="D30" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:4">
+      <c r="C31" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="3:4">
-      <c r="C30" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:4">
-      <c r="C31" s="11" t="s">
+    <row r="32" customHeight="1" spans="3:4">
+      <c r="C32" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="2:4">
+      <c r="C33" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:4">
-      <c r="C32" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="2:4">
-      <c r="C33" s="11" t="s">
+      <c r="D33" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="2:4">
+      <c r="C34" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D33" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="2:4">
-      <c r="C34" s="11" t="s">
+      <c r="D34" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="2:4">
+      <c r="C35" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="2:4">
-      <c r="C35" s="11" t="s">
+      <c r="D35" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="2:4">
+      <c r="C36" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D35" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="2:4">
-      <c r="C36" s="11" t="s">
+      <c r="D36" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="2:4">
+      <c r="C37" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D36" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="2:4">
-      <c r="C37" s="11" t="s">
+      <c r="D37" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="2:4">
+      <c r="C38" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="2:4">
-      <c r="C38" s="11" t="s">
+      <c r="D38" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="2:4">
+      <c r="C39" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="D38" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="2:4">
-      <c r="C39" s="11" t="s">
+      <c r="D39" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="2:4">
+      <c r="C40" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="2:4">
-      <c r="C40" s="11" t="s">
+      <c r="D40" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="2:4">
+      <c r="C41" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="2:4">
+      <c r="C42" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D40" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="2:4">
-      <c r="C41" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D41" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="2:4">
-      <c r="C42" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" s="12">
+      <c r="D42" s="15">
         <v>9</v>
       </c>
     </row>
@@ -14904,354 +15793,354 @@
       <c r="B43">
         <v>2024</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="18">
         <v>15</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:4">
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:4">
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="2:4">
+      <c r="C46" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="2:4">
+      <c r="C47" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="2:4">
+      <c r="C48" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:4">
+      <c r="C49" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="2:4">
-      <c r="C46" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="2:4">
-      <c r="C47" s="15" t="s">
+      <c r="D49" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:4">
+      <c r="C50" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:4">
+      <c r="C51" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:4">
+      <c r="C52" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:4">
+      <c r="C53" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:4">
+      <c r="C54" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:4">
+      <c r="C55" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:4">
+      <c r="C56" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:4">
+      <c r="C57" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:4">
+      <c r="C58" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:4">
+      <c r="C59" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:4">
+      <c r="C60" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:4">
+      <c r="C61" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:4">
+      <c r="C62" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:4">
+      <c r="C63" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:4">
+      <c r="C64" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:4">
+      <c r="C65" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:4">
+      <c r="C66" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:4">
+      <c r="C67" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:4">
+      <c r="C68" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:4">
+      <c r="C69" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:4">
+      <c r="C70" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D70" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:4">
+      <c r="C71" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:4">
+      <c r="C72" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D72" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:4">
+      <c r="C73" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:4">
+      <c r="C74" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D74" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:4">
+      <c r="C75" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D75" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:4">
+      <c r="C76" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:4">
+      <c r="C77" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D77" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="3:4">
+      <c r="C78" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D78" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:4">
+      <c r="C79" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D79" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:4">
+      <c r="C80" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="D47" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="2:4">
-      <c r="C48" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D48" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="3:4">
-      <c r="C49" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D49" s="15">
+      <c r="D80" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="3:4">
+      <c r="C81" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:4">
+      <c r="C82" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D82" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="3:4">
-      <c r="C50" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="3:4">
-      <c r="C51" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:4">
-      <c r="C52" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D52" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="3:4">
-      <c r="C53" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="3:4">
-      <c r="C54" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="3:4">
-      <c r="C55" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D55" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="3:4">
-      <c r="C56" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="3:4">
-      <c r="C57" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="3:4">
-      <c r="C58" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D58" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="3:4">
-      <c r="C59" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="3:4">
-      <c r="C60" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="3:4">
-      <c r="C61" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D61" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="3:4">
-      <c r="C62" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D62" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="3:4">
-      <c r="C63" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D63" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="3:4">
-      <c r="C64" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D64" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="3:4">
-      <c r="C65" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D65" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="3:4">
-      <c r="C66" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D66" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="3:4">
-      <c r="C67" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D67" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="3:4">
-      <c r="C68" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D68" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="3:4">
-      <c r="C69" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D69" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="3:4">
-      <c r="C70" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D70" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="3:4">
-      <c r="C71" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D71" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="3:4">
-      <c r="C72" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D72" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="3:4">
-      <c r="C73" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D73" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="3:4">
-      <c r="C74" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D74" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="3:4">
-      <c r="C75" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D75" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="3:4">
-      <c r="C76" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D76" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="3:4">
-      <c r="C77" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D77" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="3:4">
-      <c r="C78" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D78" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="3:4">
-      <c r="C79" s="15" t="s">
+    <row r="83" customHeight="1" spans="3:4">
+      <c r="C83" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D79" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" customHeight="1" spans="3:4">
-      <c r="C80" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D80" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="3:4">
-      <c r="C81" s="15" t="s">
+      <c r="D83" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:4">
+      <c r="C84" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="D81" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="3:4">
-      <c r="C82" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D82" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="3:4">
-      <c r="C83" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D83" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="3:4">
-      <c r="C84" s="15" t="s">
+      <c r="D84" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:4">
+      <c r="C85" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D85" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="3:4">
+      <c r="C86" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D84" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="3:4">
-      <c r="C85" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D85" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" customHeight="1" spans="3:4">
-      <c r="C86" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D86" s="15">
+      <c r="D86" s="18">
         <v>3</v>
       </c>
     </row>
@@ -15346,7 +16235,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -15391,7 +16280,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
